--- a/JPN-Main-Model/active/co2-constrnt-conv-nonuc/results/elc.xlsx
+++ b/JPN-Main-Model/active/co2-constrnt-conv-nonuc/results/elc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\JPN-Main-Model\active\co2-con-conv-nonuc\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achubbz\Documents\GitHub\i2cner\JPN-Main-Model\active\co2-constrnt-conv-nonuc\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19CFC87B-3F4E-4EF7-8C23-8B015D4FF9FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{437EC936-8499-4A86-9F19-9262768AC3E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32772" yWindow="32772" windowWidth="19092" windowHeight="11616" activeTab="1"/>
+    <workbookView xWindow="32772" yWindow="32772" windowWidth="19092" windowHeight="11616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T_010818_200948" sheetId="2" r:id="rId1"/>
@@ -60,20 +60,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,7 +148,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> function, </a:t>
+              <a:t> function,  no new nuclear</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="en-US"/>
@@ -5957,7 +5951,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
@@ -6296,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:CL18"/>
   <sheetViews>
     <sheetView topLeftCell="BP1" workbookViewId="0">
@@ -8189,7 +8183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
